--- a/calib/calib-timeline-qa.xlsx
+++ b/calib/calib-timeline-qa.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="100">
   <si>
     <t xml:space="preserve">Subsystem</t>
   </si>
@@ -271,7 +271,13 @@
     <t xml:space="preserve">DC</t>
   </si>
   <si>
-    <t xml:space="preserve">dc residuals sec sl peak</t>
+    <t xml:space="preserve">dc residuals sec sl mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt; ±0.005  cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dc residuals sec sl sigma</t>
   </si>
   <si>
     <r>
@@ -282,12 +288,44 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">225-450  </t>
+      <t xml:space="preserve">R1,R3 &lt; 300  </t>
     </r>
     <r>
       <rPr>
         <sz val="18"/>
-        <color rgb="FF00A65D"/>
+        <color rgb="FF000000"/>
+        <rFont val="Symbol"/>
+        <family val="0"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve">m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">R2 &lt; 400  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
         <rFont val="Symbol"/>
         <family val="0"/>
         <charset val="2"/>
@@ -306,42 +344,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">dc residuals sec sl sigma</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFED1C24"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt; ±250  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFED1C24"/>
-        <rFont val="Symbol"/>
-        <family val="0"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFED1C24"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">m</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">doesn’t seem correct; most data are in the range 200-400 micrometers</t>
+    <t xml:space="preserve">R1=sl1,2; R2=sl3,4; R3=sl5,6</t>
   </si>
   <si>
     <t xml:space="preserve">BAND</t>
@@ -385,7 +388,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -454,14 +457,7 @@
     </font>
     <font>
       <sz val="18"/>
-      <color rgb="FF00A65D"/>
-      <name val="Symbol"/>
-      <family val="0"/>
-      <charset val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FFED1C24"/>
+      <color rgb="FF000000"/>
       <name val="Symbol"/>
       <family val="0"/>
       <charset val="2"/>
@@ -723,6 +719,22 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -732,22 +744,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -830,8 +826,8 @@
   </sheetPr>
   <dimension ref="A1:V42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C38" activeCellId="0" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1880,7 +1876,7 @@
       <c r="U36" s="9"/>
       <c r="V36" s="9"/>
     </row>
-    <row r="37" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="10" t="s">
         <v>82</v>
       </c>
@@ -1890,8 +1886,8 @@
       <c r="C37" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="28"/>
-      <c r="E37" s="8"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="27"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
@@ -1910,17 +1906,19 @@
       <c r="U37" s="9"/>
       <c r="V37" s="9"/>
     </row>
-    <row r="38" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="23" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="14"/>
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="D38" s="36"/>
+      <c r="D38" s="31" t="s">
+        <v>87</v>
+      </c>
       <c r="E38" s="27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
@@ -1942,19 +1940,19 @@
     </row>
     <row r="39" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B39" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="C39" s="38" t="s">
+      <c r="B39" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="D39" s="39" t="s">
+      <c r="C39" s="35" t="s">
         <v>91</v>
       </c>
+      <c r="D39" s="36" t="s">
+        <v>92</v>
+      </c>
       <c r="E39" s="27" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
@@ -1977,12 +1975,12 @@
     <row r="40" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="18"/>
       <c r="B40" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="33"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="27" t="s">
         <v>93</v>
-      </c>
-      <c r="C40" s="33"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="27" t="s">
-        <v>92</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
@@ -2004,13 +2002,13 @@
     </row>
     <row r="41" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="14"/>
-      <c r="B41" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="C41" s="35"/>
-      <c r="D41" s="36"/>
+      <c r="B41" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="39"/>
+      <c r="D41" s="40"/>
       <c r="E41" s="27" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
@@ -2032,17 +2030,17 @@
     </row>
     <row r="42" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B42" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="B42" s="38" t="s">
         <v>97</v>
+      </c>
+      <c r="C42" s="39" t="s">
+        <v>98</v>
       </c>
       <c r="D42" s="31"/>
       <c r="E42" s="27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
